--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1434,6 +1431,34 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <rPh sb="0" eb="1">
+      <t>cun'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <rPh sb="0" eb="1">
+      <t>fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <rPh sb="0" eb="1">
+      <t>guang'g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1759,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2053,6 +2078,38 @@
         <v>55</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1459,6 +1462,40 @@
     <t>广告</t>
     <rPh sb="0" eb="1">
       <t>guang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的属性出现不同的剧情和结局。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju'qng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1784,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1867,11 +1904,17 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>15</v>
       </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -2078,35 +2121,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1824,7 +1824,7 @@
   <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1962,7 +1962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1976,17 +1976,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>36</v>
       </c>
@@ -2002,12 +2002,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>30</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>31</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -2058,16 +2058,22 @@
       <c r="D29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1076,7 +1076,380 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色的成长，根据里程增加力量（攻击、防御），根据武器使用情况增加攻击、准确度。</t>
+    <t>物品</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣物、鞋子、武器、食物、药品、材料等。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yao'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cai'liao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人、售卖NPC、剧情NPC等。</t>
+    <rPh sb="0" eb="1">
+      <t>di'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ju'qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <rPh sb="0" eb="1">
+      <t>ju'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剧情及NPC对话。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'ju'qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新物品同时更新负重，负重满时不能前进和探索。</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'ixn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu'zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu'zhong'man</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian'jin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据距离改变获得的奖励内容？</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ineirong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'v</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。</t>
+    <rPh sb="0" eb="1">
+      <t>geng'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>s'fou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>die'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <rPh sb="0" eb="1">
+      <t>cun'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <rPh sb="0" eb="1">
+      <t>fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <rPh sb="0" eb="1">
+      <t>guang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的属性出现不同的剧情和结局。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju'qng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃1个和全部丢弃。</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>sh'yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhuang'bei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chuan'dai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>tuo'xia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>diu'qi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>he</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>diu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'bu'kao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄狗根据时间成长体质。</t>
+    <rPh sb="0" eb="1">
+      <t>da'huagn'gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的成长，根据时间成长体质，根据体质增加属性（生命上限、攻击、防御等），根据武器使用情况增加攻击、准确度。</t>
     <rPh sb="0" eb="1">
       <t>jue'se</t>
     </rPh>
@@ -1093,409 +1466,58 @@
       <t>gen'ju</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>li'cheng</t>
+      <t>shi'jian</t>
     </rPh>
     <rPh sb="10" eb="11">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>zeng'jai</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>li'liang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="21" eb="22">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
       <t>gong'ji</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="32" eb="33">
       <t>fang'yu</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="34" eb="35">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
       <t>gen'ju</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="39" eb="40">
       <t>wu'qi</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="41" eb="42">
       <t>shi'yong'qing'kuang</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="45" eb="46">
       <t>zeng'jia</t>
     </rPh>
-    <rPh sb="32" eb="33">
+    <rPh sb="47" eb="48">
       <t>gong'ji</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="50" eb="51">
       <t>zhun'que'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大黄狗根据时间成长生命和攻击。</t>
-    <rPh sb="0" eb="1">
-      <t>da'huagn'gou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shegn'ming</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>he</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>gong'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品</t>
-    <rPh sb="0" eb="1">
-      <t>wu'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣物、鞋子、武器、食物、药品、材料等。</t>
-    <rPh sb="0" eb="1">
-      <t>yi'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xie'zi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wu'qi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'wu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yao'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cai'liao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人、售卖NPC、剧情NPC等。</t>
-    <rPh sb="0" eb="1">
-      <t>di'ren</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou'mai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ju'qing</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情</t>
-    <rPh sb="0" eb="1">
-      <t>ju'qing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剧情及NPC对话。</t>
-    <rPh sb="0" eb="1">
-      <t>chang'ju'qing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dui'hau</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新物品同时更新负重，负重满时不能前进和探索。</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tong'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>geng'ixn</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fu'zhong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fu'zhong'man</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'neng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qian'jin</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>he</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tan'suo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃和分数量丢弃。</t>
-    <rPh sb="0" eb="1">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sh'yong</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>mu'biao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zhuang'bei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhi'jie</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chuan'dai</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>tuo'xia</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>diu'qi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>he</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>shu'laing</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>diu'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据距离改变获得的奖励内容？</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ju'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai'bian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo'de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiang'l</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ineirong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不考虑</t>
-    <rPh sb="0" eb="1">
-      <t>zan'shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kao'v</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。</t>
-    <rPh sb="0" eb="1">
-      <t>geng'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhan'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>kao'lv</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>s'fou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>die'jia</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>d</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档</t>
-    <rPh sb="0" eb="1">
-      <t>cun'dang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费</t>
-    <rPh sb="0" eb="1">
-      <t>fu'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <rPh sb="0" eb="1">
-      <t>guang'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据不同的属性出现不同的剧情和结局。</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>d</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ju'qng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>he</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'ju</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1821,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1848,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1856,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1864,15 +1886,15 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1883,7 +1905,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1894,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1905,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1913,255 +1935,273 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>34</v>
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
       <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
+      <c r="C32" t="s">
+        <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>49</v>
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A38">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
-        <v>67</v>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -805,720 +802,735 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断负重、增加物品，扣除消耗的材料。增加时间。</t>
-    <rPh sb="0" eb="1">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'zhong</t>
+    <t>制箭功能</t>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上。</t>
+    <rPh sb="0" eb="1">
+      <t>tong'shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长/成就功能</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'jiu</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>zeng'jai</t>
+      <t>gong'neng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示详细属性/熟练度/特性等。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'xing</t>
     </rPh>
     <rPh sb="7" eb="8">
+      <t>shu'lian'du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>te'xing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长和背包功能的切换，默认进入界面时是背包界面。</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>s</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上方UI</t>
+    <rPh sb="0" eb="1">
+      <t>shagn'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据数值大小展现不同的颜色。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhan'xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下方UI</t>
+    <rPh sb="0" eb="1">
+      <t>xia'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗界面隐藏，非战斗界面展示。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jei'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'cang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei'zhan'dou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面切换</t>
+    <rPh sb="0" eb="1">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qie'huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同界面切换的隐藏、展示关系和补间动画</t>
+    <rPh sb="0" eb="1">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qie'huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin'cang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan'xi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'jian'dong'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据及文本</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <rPh sb="0" eb="1">
       <t>wu'pin</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>kou'chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣物、鞋子、武器、食物、药品、材料等。</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xie'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'wu</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>d</t>
+      <t>yao'pin</t>
     </rPh>
     <rPh sb="15" eb="16">
       <t>cai'liao</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="17" eb="18">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人、售卖NPC、剧情NPC等。</t>
+    <rPh sb="0" eb="1">
+      <t>di'ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou'mai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ju'qing</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <rPh sb="0" eb="1">
+      <t>ju'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剧情及NPC对话。</t>
+    <rPh sb="0" eb="1">
+      <t>chang'ju'qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dui'hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新物品同时更新负重，负重满时不能前进和探索。</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'ixn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu'zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fu'zhong'man</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian'jin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据距离改变获得的奖励内容？</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ju'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ineirong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kao'v</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。</t>
+    <rPh sb="0" eb="1">
+      <t>geng'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bei'bao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>kao'lv</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>s'fou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>die'jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>d</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <rPh sb="0" eb="1">
+      <t>cun'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <rPh sb="0" eb="1">
+      <t>fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <rPh sb="0" eb="1">
+      <t>guang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的属性出现不同的剧情和结局。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju'qng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃1个和全部丢弃。</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>zeng'jia</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="7" eb="8">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>sh'yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhuang'bei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chuan'dai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>tuo'xia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>diu'qi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>he</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>diu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'bu'kao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄狗根据时间成长体质。</t>
+    <rPh sb="0" eb="1">
+      <t>da'huagn'gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
       <t>shi'jian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加精神、生命和时间。</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="7" eb="8">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的成长，根据时间成长体质，根据体质增加属性（生命上限、攻击、防御等），根据武器使用情况增加攻击、准确度。</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>zeng'jai</t>
     </rPh>
+    <rPh sb="21" eb="22">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wu'qi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shi'yong'qing'kuang</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zhun'que'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加精神和时间。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
     <rPh sb="2" eb="3">
       <t>jing'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间增加生命恢复</t>
+    <rPh sb="0" eb="1">
+      <t>sui'shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'jai</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>sheng'ming</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>he</t>
-    </rPh>
-    <rPh sb="8" eb="9">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加物品，扣除消耗的材料。增加时间。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai'liao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>shi'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制箭功能</t>
-    <rPh sb="2" eb="3">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上。</t>
-    <rPh sb="0" eb="1">
-      <t>tong'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长/成就功能</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng'jiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示详细属性/熟练度/特性等。</t>
-    <rPh sb="0" eb="1">
-      <t>zhan'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang'xi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'lian'du</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>te'xing</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长和背包功能的切换，默认进入界面时是背包界面。</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gong'neng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>d</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qie'huan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>mo'ren</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jin'ru</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>s</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>jie'mian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上方UI</t>
-    <rPh sb="0" eb="1">
-      <t>shagn'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据数值大小展现不同的颜色。</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shu'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da'xiao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhan'xian</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>d</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yan'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下方UI</t>
-    <rPh sb="0" eb="1">
-      <t>xia'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗界面隐藏，非战斗界面展示。</t>
-    <rPh sb="0" eb="1">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jei'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yin'cang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fei'zhan'dou</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhan'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面切换</t>
-    <rPh sb="0" eb="1">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qie'huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同界面切换的隐藏、展示关系和补间动画</t>
-    <rPh sb="0" eb="1">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qie'huan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yin'cang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhan'shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>guan'xi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>he</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'jian'dong'hua</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据及文本</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wen'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长</t>
-    <rPh sb="0" eb="1">
-      <t>cheng'zhang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品</t>
-    <rPh sb="0" eb="1">
-      <t>wu'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣物、鞋子、武器、食物、药品、材料等。</t>
-    <rPh sb="0" eb="1">
-      <t>yi'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xie'zi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>wu'qi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi'wu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yao'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cai'liao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人、售卖NPC、剧情NPC等。</t>
-    <rPh sb="0" eb="1">
-      <t>di'ren</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou'mai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ju'qing</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>deng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情</t>
-    <rPh sb="0" eb="1">
-      <t>ju'qing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剧情及NPC对话。</t>
-    <rPh sb="0" eb="1">
-      <t>chang'ju'qing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dui'hau</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新物品同时更新负重，负重满时不能前进和探索。</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tong'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>geng'ixn</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fu'zhong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>fu'zhong'man</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu'neng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qian'jin</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>he</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tan'suo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据距离改变获得的奖励内容？</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ju'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai'bian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo'de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiang'l</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ineirong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不考虑</t>
-    <rPh sb="0" eb="1">
-      <t>zan'shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kao'v</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。</t>
-    <rPh sb="0" eb="1">
-      <t>geng'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dang'qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bei'bao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhan'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>kao'lv</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>s'fou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>die'jia</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>d</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wen'ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档</t>
-    <rPh sb="0" eb="1">
-      <t>cun'dang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费</t>
-    <rPh sb="0" eb="1">
-      <t>fu'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <rPh sb="0" eb="1">
-      <t>guang'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据不同的属性出现不同的剧情和结局。</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>d</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ju'qng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>he</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃1个和全部丢弃。</t>
-    <rPh sb="0" eb="1">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sh'yong</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>mu'biao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zhuang'bei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhi'jie</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>chuan'dai</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>tuo'xia</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>diu'qi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>he</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>quan'bu</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>diu'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不考虑</t>
-    <rPh sb="0" eb="1">
-      <t>zan'bu'kao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大黄狗根据时间成长体质。</t>
-    <rPh sb="0" eb="1">
-      <t>da'huagn'gou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色的成长，根据时间成长体质，根据体质增加属性（生命上限、攻击、防御等），根据武器使用情况增加攻击、准确度。</t>
-    <rPh sb="0" eb="1">
-      <t>jue'se</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'zhi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ti'zhi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>sheng'ming</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>fang'yu</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>wu'qi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>shi'yong'qing'kuang</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>zhun'que'du</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1870,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1878,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1886,15 +1898,15 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1905,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1916,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1927,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1935,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1995,10 +2007,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2006,15 +2018,15 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2022,29 +2034,29 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2060,13 +2072,19 @@
       <c r="D21" t="s">
         <v>29</v>
       </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2074,15 +2092,21 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2090,27 +2114,27 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2118,10 +2142,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2129,79 +2153,84 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
       <c r="D33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>64</v>
+      <c r="B39" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -545,25 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物AI，不需要我方自动战斗</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>bu'xu'yao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wo'fang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zi'dong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhan'dou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前进、后退、造成伤害等逻辑，放狗属于造成持续伤害，狗跟人平摊伤害。</t>
     <rPh sb="0" eb="1">
       <t>qian'jin</t>
@@ -1367,13 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂不考虑</t>
-    <rPh sb="0" eb="1">
-      <t>zan'bu'kao'lv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大黄狗根据时间成长体质。</t>
     <rPh sb="0" eb="1">
       <t>da'huagn'gou</t>
@@ -1531,6 +1505,49 @@
   </si>
   <si>
     <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物AI</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑</t>
+    <rPh sb="0" eb="1">
+      <t>tao'pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据技能使用情况提升熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'lian'du</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1855,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E39"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1882,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1890,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1898,15 +1915,15 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1917,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1928,7 +1945,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1939,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1947,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1969,7 +1986,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1977,260 +1994,267 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
+      <c r="D36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>62</v>
+      <c r="B41" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1587,6 +1587,191 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>yan'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包体大小调整</t>
+    <rPh sb="0" eb="1">
+      <t>bao'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村镇名称、NPC名称。初始随机1个位置，以后向后取，保证不出现重复。</t>
+    <rPh sb="0" eb="1">
+      <t>cun'zhen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiang'hou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bao'zheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu'chu'xian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>chong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调优</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利/失败精神会变化，战斗失败精神降低。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jiang'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅度提高npc掉落物品数量，所有物品全掉落。增加道具：破旧的衣服。</t>
+    <rPh sb="0" eb="1">
+      <t>da'fu'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>po'jiu'de'yi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物新增挑衅后果类型：0杀死 1打一顿 2抢劫，对应给出提示。</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou'guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sha'si</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da'yi'dun</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qiang'jie</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1912,10 +2097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2286,36 +2471,82 @@
         <v>62</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1581,16 +1578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文字颜色？</t>
-    <rPh sb="0" eb="1">
-      <t>wen'zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yan'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包体大小调整</t>
     <rPh sb="0" eb="1">
       <t>bao'ti</t>
@@ -1772,6 +1759,43 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础规则</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu'gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理基础的数据规范</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急！</t>
+    <rPh sb="0" eb="1">
+      <t>jin'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2099,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2110,7 +2134,7 @@
     <col min="4" max="4" width="133.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2127,7 +2151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>11</v>
       </c>
@@ -2143,7 +2167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>54</v>
       </c>
@@ -2151,7 +2175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -2184,7 +2208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2209,7 +2233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -2231,18 +2255,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2277,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>73</v>
       </c>
@@ -2264,7 +2288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>72</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -2450,7 +2474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>48</v>
       </c>
@@ -2466,87 +2490,101 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-37160" yWindow="500" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="配置规则" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1112,7 +1116,1478 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。</t>
+    <t>存档</t>
+    <rPh sb="0" eb="1">
+      <t>cun'dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
+    <rPh sb="0" eb="1">
+      <t>fu'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <rPh sb="0" eb="1">
+      <t>fen'xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <rPh sb="0" eb="1">
+      <t>guang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据不同的属性出现不同的剧情和结局。</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu'tong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ju'qng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃1个和全部丢弃。</t>
+    <rPh sb="0" eb="1">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>sh'yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhuang'bei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhi'jie</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>chuan'dai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>tuo'xia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>diu'qi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>he</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>quan'bu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>diu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色的成长，根据时间成长体质，根据体质增加属性（生命上限、攻击、防御等），根据武器使用情况增加攻击、准确度。</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cheng'zhang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shu'xing</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wu'qi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shi'yong'qing'kuang</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zhun'que'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加精神和时间。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间增加生命恢复</t>
+    <rPh sb="0" eb="1">
+      <t>sui'shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加物品，扣除消耗的材料。增加时间。</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kou'chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cai'liao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物AI</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑</t>
+    <rPh sb="0" eb="1">
+      <t>tao'pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据技能使用情况提升熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing'kuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进、后退、造成伤害等逻辑，放狗属于造成持续伤害。敌人随机攻击狗和人。狗受重伤离开战场，被召唤会再次回来。</t>
+    <rPh sb="0" eb="1">
+      <t>qian'jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hou'tui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zao'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>luo'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang'gou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu'yu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zao'cheng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chi'xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>di'ren</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>he</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shou'zhong'shang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>li'kai'z</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhan'chang</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>bei'zhao'huan</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zai'ci</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>hui'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包体大小调整</t>
+    <rPh sb="0" eb="1">
+      <t>bao'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <rPh sb="0" eb="1">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村镇名称、NPC名称。初始随机1个位置，以后向后取，保证不出现重复。</t>
+    <rPh sb="0" eb="1">
+      <t>cun'zhen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming'cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei'zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi'hou</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiang'hou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bao'zheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu'chu'xian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>chong'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调优</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利/失败精神会变化，战斗失败精神降低。</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian'hua</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan'dou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shi'bai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jiang'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅度提高npc掉落物品数量，所有物品全掉落。增加道具：破旧的衣服。</t>
+    <rPh sb="0" eb="1">
+      <t>da'fu'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>po'jiu'de'yi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物新增挑衅后果类型：0杀死 1打一顿 2抢劫，对应给出提示。</t>
+    <rPh sb="0" eb="1">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'zeng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hou'guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sha'si</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>da'yi'dun</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qiang'jie</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dui'ying</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gei'chu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础规则</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu'gui'ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理基础的数据规范</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>hpMax</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>defence</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>basicSpeed</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weightMax</t>
+  </si>
+  <si>
+    <t>escapeProficiency</t>
+  </si>
+  <si>
+    <t>meleeProficiency</t>
+  </si>
+  <si>
+    <t>rangedProficiency</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>dogHp</t>
+  </si>
+  <si>
+    <t>dogHpMax</t>
+  </si>
+  <si>
+    <t>dogAtk</t>
+  </si>
+  <si>
+    <t>dogDef</t>
+  </si>
+  <si>
+    <t>dogFood</t>
+  </si>
+  <si>
+    <t>dogWater</t>
+  </si>
+  <si>
+    <t>dogConstitution</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="1">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自卑，懵懂，自信，狂妄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶残，残忍，淳朴，善良，老好人</t>
+    <rPh sb="3" eb="4">
+      <t>can'ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chun'pu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shan'liang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lao'hao'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚蠢，笨拙，聪明，精明</t>
+    <rPh sb="3" eb="4">
+      <t>ben'zhuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cong'mign</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC聊天格式</t>
+    <rPh sb="3" eb="4">
+      <t>liao'tian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <rPh sb="0" eb="1">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <rPh sb="0" eb="1">
+      <t>li'kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢劫</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|文本</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|文本|enemyId</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|文本|itemId</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出1个</t>
+    <rPh sb="0" eb="1">
+      <t>mai'chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|文本|itemId</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部卖出</t>
+    <rPh sb="0" eb="1">
+      <t>quan'bu'mai'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|文本|itemId</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|文本|itemId|num|reward|感激文本</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gan'ji</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝赠与</t>
+    <rPh sb="0" eb="1">
+      <t>ju'jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送物品</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送金钱</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin'qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|文本|num|reward|感激文本</t>
+    <rPh sb="2" eb="3">
+      <t>wen'b</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gan'j'wen'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|文本|奖励|感激文本</t>
+    <rPh sb="2" eb="3">
+      <t>wen'ben</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen'ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品表</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>ammo</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="1">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <rPh sb="0" eb="1">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>弹药id</t>
+  </si>
+  <si>
+    <t>字段</t>
+    <rPh sb="0" eb="1">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <rPh sb="0" eb="1">
+      <t>jie'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买价格/出售价格</t>
+    <rPh sb="0" eb="1">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu'shou'jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有type=6，7的需要填</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器格式 攻击|命中|暴击|间隔|距离，衣服：防御，鞋子：速度</t>
+    <rPh sb="0" eb="1">
+      <t>wu'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ge'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ming'zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bao'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian'ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ju'li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi'fu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fang'yu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xie'zi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleverness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="1">
+      <t>fang'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="1">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu'su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神</t>
+    <rPh sb="0" eb="1">
+      <t>jing'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <rPh sb="0" eb="1">
+      <t>shi'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <rPh sb="0" eb="1">
+      <t>ti'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负重</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负重上限</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhong'shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃跑熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>tao'pao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搏斗熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>bo'dou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击熟练度</t>
+    <rPh sb="0" eb="1">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'lian'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <rPh sb="0" eb="1">
+      <t>ming'zhong'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <rPh sb="0" eb="1">
+      <t>bao'ji'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心地</t>
+    <rPh sb="0" eb="1">
+      <t>xin'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理</t>
+    <rPh sb="0" eb="1">
+      <t>xin'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心智</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <rPh sb="0" eb="1">
+      <t>xian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <rPh sb="0" eb="1">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选名称</t>
+    <rPh sb="0" eb="1">
+      <t>ke'xuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个通用，1个外号，1个本种类特色</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai'hao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ben'zhong'lei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>te'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗属性</t>
+    <rPh sb="0" eb="1">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'mign</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <rPh sb="0" eb="1">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="1">
+      <t>wu'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <rPh sb="0" eb="1">
+      <t>jin'zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <rPh sb="0" eb="1">
+      <t>yi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品</t>
+    <rPh sb="0" eb="1">
+      <t>yao'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'hao'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟、酒等狗不可使用的物品</t>
+    <rPh sb="0" eb="1">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu'ke'shi'yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <rPh sb="0" eb="1">
+      <t>gong'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械</t>
+    <rPh sb="0" eb="1">
+      <t>qiang'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂物</t>
+    <rPh sb="0" eb="1">
+      <t>za'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖品、弹药等</t>
+    <rPh sb="0" eb="1">
+      <t>mai'pin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dan'yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects格式</t>
+    <rPh sb="7" eb="8">
+      <t>ge'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型|值;类型|值;类型|值;类型|值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否学会烤肉、制造</t>
+    <rPh sb="0" eb="1">
+      <t>s'fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'rou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi'zao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高100</t>
+    <rPh sb="0" eb="1">
+      <t>zui'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多7个字</t>
+    <rPh sb="0" eb="1">
+      <t>zui'duo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前背包数据展示物品,需要考虑是否可叠加的问题。所有物品都可以叠加。</t>
     <rPh sb="0" eb="1">
       <t>geng'ju</t>
     </rPh>
@@ -1152,650 +2627,20 @@
     <rPh sb="23" eb="24">
       <t>wen'ti</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存档</t>
-    <rPh sb="0" eb="1">
-      <t>cun'dang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费</t>
-    <rPh sb="0" eb="1">
-      <t>fu'fei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <rPh sb="0" eb="1">
-      <t>fen'xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <rPh sb="0" eb="1">
-      <t>guang'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据不同的属性出现不同的剧情和结局。</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chu'xian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu'tong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>d</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ju'qng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>he</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jie'ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用物品，增加属性。消耗类物品可以选择使用目标。装备类物品支持直接穿戴、脱下。支持物品丢弃1个和全部丢弃。</t>
-    <rPh sb="0" eb="1">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="26" eb="27">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="28" eb="29">
       <t>wu'pin</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="30" eb="31">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
       <t>ke'yi</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>xuan'ze</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sh'yong</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>mu'biao</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zhuang'bei</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>lei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>zhi'jie</t>
-    </rPh>
     <rPh sb="33" eb="34">
-      <t>chuan'dai</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>tuo'xia</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>zhi'chi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>diu'qi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>he</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>quan'bu</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>diu'qi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大黄狗根据时间成长体质。</t>
-    <rPh sb="0" eb="1">
-      <t>da'huagn'gou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色的成长，根据时间成长体质，根据体质增加属性（生命上限、攻击、防御等），根据武器使用情况增加攻击、准确度。</t>
-    <rPh sb="0" eb="1">
-      <t>jue'se</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi'jian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cheng'zhang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti'zhi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ti'zhi</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shu'xing</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>sheng'ming</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>fang'yu</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>wu'qi</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>shi'yong'qing'kuang</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>zhun'que'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加精神和时间。</t>
-    <rPh sb="0" eb="1">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jing'shen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>he</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随时间增加生命恢复</t>
-    <rPh sb="0" eb="1">
-      <t>sui'shi'jian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sheng'ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hui'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加物品，扣除消耗的材料。增加时间。</t>
-    <rPh sb="0" eb="1">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>kou'chu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiao'hao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cai'liao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物AI</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃跑</t>
-    <rPh sb="0" eb="1">
-      <t>tao'pao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练度</t>
-    <rPh sb="0" eb="1">
-      <t>shu'lian'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据技能使用情况提升熟练度</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi'yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qing'kuang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ti'sheng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shu'lian'du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前进、后退、造成伤害等逻辑，放狗属于造成持续伤害。敌人随机攻击狗和人。狗受重伤离开战场，被召唤会再次回来。</t>
-    <rPh sb="0" eb="1">
-      <t>qian'jin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>hou'tui</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zao'cheng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shang'hai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>luo'ji</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>fang'gou</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shu'yu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>zao'cheng</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>chi'xu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shang'hai</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>di'ren</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>gou</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>he</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>gou</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shou'zhong'shang</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>li'kai'z</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zhan'chang</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>bei'zhao'huan</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>zai'ci</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>hui'lai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包体大小调整</t>
-    <rPh sb="0" eb="1">
-      <t>bao'ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'xiao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本</t>
-    <rPh sb="0" eb="1">
-      <t>wen'ben</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村镇名称、NPC名称。初始随机1个位置，以后向后取，保证不出现重复。</t>
-    <rPh sb="0" eb="1">
-      <t>cun'zhen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'cheng</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ming'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chu'shi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wei'zhi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yi'hou</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xiang'hou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>qu</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>bao'zheng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bu'chu'xian</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>chong'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调优</t>
-    <rPh sb="0" eb="1">
-      <t>tiao'you</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗胜利/失败精神会变化，战斗失败精神降低。</t>
-    <rPh sb="0" eb="1">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sheng'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'bai</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jing'shen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bian'hua</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zhan'dou</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shi'bai</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jing'shen</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jiang'di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅度提高npc掉落物品数量，所有物品全掉落。增加道具：破旧的衣服。</t>
-    <rPh sb="0" eb="1">
-      <t>da'fu'du</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shu'liang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>quan</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>po'jiu'de'yi'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物新增挑衅后果类型：0杀死 1打一顿 2抢劫，对应给出提示。</t>
-    <rPh sb="0" eb="1">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'zeng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao'xin</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hou'guo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>lei'xing</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>sha'si</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>da'yi'dun</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>qiang'jie</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>dui'ying</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>gei'chu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ti'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础规则</t>
-    <rPh sb="0" eb="1">
-      <t>ji'chu'gui'ze</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理基础的数据规范</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gui'fan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急！</t>
-    <rPh sb="0" eb="1">
-      <t>jin'ji</t>
+      <t>die'jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2121,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2230,7 +3075,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2238,10 +3083,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2249,10 +3094,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2263,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2274,26 +3119,26 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2307,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -2323,7 +3168,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -2367,7 +3212,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2375,7 +3220,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -2386,7 +3231,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
@@ -2400,7 +3245,7 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2453,138 +3298,775 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
       <c r="D36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37160" yWindow="500" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-37320" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="213">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1346,22 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随时间增加生命恢复</t>
-    <rPh sb="0" eb="1">
-      <t>sui'shi'jian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zeng'jai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>sheng'ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>hui'fu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1625,46 +1609,6 @@
   </si>
   <si>
     <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大幅度提高npc掉落物品数量，所有物品全掉落。增加道具：破旧的衣服。</t>
-    <rPh sb="0" eb="1">
-      <t>da'fu'du</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ti'gao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>shu'liang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>suo'you</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>wu'pin</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>quan</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>dao'ju</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>po'jiu'de'yi'fu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2356,13 +2300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>举例</t>
-    <rPh sb="0" eb="1">
-      <t>ju'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可选名称</t>
     <rPh sb="0" eb="1">
       <t>ke'xuan</t>
@@ -2641,6 +2578,160 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>die'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var moveTo = cc.moveTo(1,cc.p(100,100)); //1是运动时间
+cc.node.runAction(moveTo);</t>
+    <rPh sb="44" eb="45">
+      <t>s</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>yun'dong'shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度1</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础命中0.8</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础暴击0.1</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始cd 0</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间增加生命恢复，每10体质回复1生命</t>
+    <rPh sb="0" eb="1">
+      <t>sui'shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti'zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hui'fu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sheng'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大幅度提高npc掉落物品数量，所有物品全掉落。增加道具：破旧的衣服|破旧的裤子</t>
+    <rPh sb="0" eb="1">
+      <t>da'fu'du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu'liang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wu'pin</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>quan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dao'ju</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>po'jiu'de'yi'fu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>po'jiu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>d</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ku'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <rPh sb="0" eb="1">
+      <t>ju'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗吃了加精神的没用</t>
+    <rPh sb="0" eb="1">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chi'le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing'shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mgi'yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2686,9 +2777,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2966,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2977,6 +3071,7 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="133.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3075,7 +3170,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3083,10 +3178,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3094,10 +3189,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3108,7 +3203,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3119,29 +3214,29 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3152,13 +3247,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -3166,7 +3261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +3269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -3185,20 +3280,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3212,10 +3313,10 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>28</v>
       </c>
@@ -3226,18 +3327,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>30</v>
       </c>
@@ -3245,10 +3346,10 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -3265,7 +3366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -3276,7 +3377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3286,8 +3387,11 @@
       <c r="D29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>7</v>
       </c>
@@ -3300,13 +3404,19 @@
       <c r="D30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>44</v>
       </c>
@@ -3337,10 +3447,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
         <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -3348,91 +3458,99 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
+      <c r="C41" t="s">
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>14</v>
       </c>
-      <c r="B46" t="s">
-        <v>74</v>
+      <c r="B47" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3443,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3458,36 +3576,36 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3495,25 +3613,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" t="s">
         <v>121</v>
       </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3521,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3533,19 +3651,19 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
         <v>122</v>
       </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -3553,10 +3671,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3565,16 +3683,16 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -3582,10 +3700,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3594,19 +3712,19 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3614,10 +3732,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3626,16 +3744,16 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3643,28 +3761,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3672,28 +3790,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3701,19 +3819,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -3721,16 +3839,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -3738,13 +3856,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3752,10 +3870,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3763,19 +3881,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" t="s">
         <v>185</v>
-      </c>
-      <c r="O14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3783,34 +3901,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" t="s">
         <v>183</v>
       </c>
-      <c r="K15" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s">
-        <v>186</v>
-      </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3818,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3830,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3841,10 +3959,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3853,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3861,10 +3979,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3873,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3881,10 +3999,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -3893,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3901,10 +4019,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -3913,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3921,25 +4039,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3947,19 +4065,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O22">
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3967,19 +4085,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O23">
         <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3987,19 +4105,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O24">
         <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -4007,10 +4125,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -4018,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -4026,7 +4144,7 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -4034,7 +4152,7 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -4042,7 +4160,7 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -4050,7 +4168,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -4058,7 +4176,7 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -4066,7 +4184,27 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37320" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="配置规则" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="231">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -1071,31 +1072,6 @@
   </si>
   <si>
     <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据距离改变获得的奖励内容？</t>
-    <rPh sb="0" eb="1">
-      <t>gen'ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ju'li</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai'bian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo'de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>jiang'l</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ineirong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2732,6 +2708,154 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>mgi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示的时候负数不用+</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc表</t>
+    <rPh sb="3" eb="4">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0怪物1npc</t>
+    <rPh sb="1" eb="2">
+      <t>guai'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考聊天格式</t>
+    <rPh sb="0" eb="1">
+      <t>can'kao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liao'tian'ge'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被敌方发现时，逃跑概率很高。</t>
+    <rPh sb="1" eb="2">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa'xian'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tao'pao'gai'lv</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hen'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据总距离改变获得的奖励内容？</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ju'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiang'l</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ineirong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3060,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3109,10 +3233,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3123,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3170,7 +3294,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3178,10 +3302,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3189,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3203,7 +3327,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3214,26 +3338,26 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -3247,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -3263,7 +3387,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
@@ -3313,7 +3437,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -3321,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -3332,7 +3456,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
@@ -3346,7 +3470,7 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3388,7 +3512,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -3402,7 +3526,7 @@
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
@@ -3410,7 +3534,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
         <v>51</v>
@@ -3423,6 +3547,9 @@
       <c r="D32" t="s">
         <v>45</v>
       </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
@@ -3442,15 +3569,15 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -3458,99 +3585,115 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
         <v>199</v>
-      </c>
-      <c r="D40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>14</v>
       </c>
-      <c r="B47" t="s">
-        <v>73</v>
+      <c r="B49" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3561,10 +3704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3576,36 +3719,36 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
         <v>135</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
         <v>150</v>
-      </c>
-      <c r="P2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3613,25 +3756,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3639,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3651,19 +3794,19 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -3671,10 +3814,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3683,16 +3826,16 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
         <v>123</v>
       </c>
-      <c r="J5" t="s">
-        <v>124</v>
-      </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -3700,10 +3843,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3712,19 +3855,19 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
         <v>125</v>
       </c>
-      <c r="J6" t="s">
-        <v>126</v>
-      </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3732,10 +3875,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3744,16 +3887,16 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
         <v>127</v>
       </c>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3761,28 +3904,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -3790,28 +3933,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
       <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
         <v>132</v>
       </c>
-      <c r="J9" t="s">
-        <v>133</v>
-      </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -3819,19 +3962,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -3839,16 +3982,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O11" t="s">
+        <v>196</v>
+      </c>
+      <c r="P11" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -3856,13 +3999,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3870,10 +4013,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3881,19 +4024,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3901,34 +4044,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3936,10 +4079,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3948,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" t="s">
         <v>186</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3959,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3971,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3979,10 +4122,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3991,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3999,10 +4142,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -4011,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -4019,10 +4162,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -4031,7 +4174,7 @@
         <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -4039,25 +4182,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" t="s">
         <v>191</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4065,19 +4208,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O22">
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -4085,19 +4228,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O23">
         <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -4105,19 +4248,19 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O24">
         <v>8</v>
       </c>
       <c r="P24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q24" t="s">
         <v>195</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -4125,10 +4268,10 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -4136,7 +4279,7 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -4144,7 +4287,10 @@
         <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -4152,7 +4298,16 @@
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -4160,7 +4315,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -4168,7 +4326,13 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="H30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -4176,7 +4340,10 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -4184,31 +4351,92 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
+      <c r="H37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C38" t="s">
+      <c r="H38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C39" t="s">
-        <v>208</v>
+      <c r="H39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="H42" t="s">
+        <v>227</v>
+      </c>
+      <c r="J42" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/ccTest/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cn_Sky/ccProject01/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="233">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -2856,6 +2853,35 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ineirong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <rPh sb="0" eb="1">
+      <t>tan'suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加空袭、炮击、战乱等内容</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong'xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pao'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan'luan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei'rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2864,6 +2890,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="General&quot;万&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2901,12 +2930,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3184,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3558,6 +3588,9 @@
       <c r="D33" t="s">
         <v>47</v>
       </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
@@ -3643,56 +3676,64 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
+      <c r="C44" t="s">
+        <v>231</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>14</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4430,12 +4471,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="3">
+        <v>1.23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/工作内容计划表.xlsx
+++ b/Design/工作内容计划表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="237">
   <si>
     <t>探索，根据里程范围读取奖励内容，增加里程数和时间，并扣除消耗。</t>
     <rPh sb="0" eb="1">
@@ -2883,6 +2883,25 @@
     <rPh sb="11" eb="12">
       <t>nei'rong</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不考虑</t>
+    <rPh sb="0" eb="1">
+      <t>zan'bu'kao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2891,7 +2910,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="General&quot;万&quot;"/>
+    <numFmt numFmtId="176" formatCode="General&quot;万&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2936,7 +2955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3216,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3626,6 +3645,9 @@
       <c r="D37" t="s">
         <v>76</v>
       </c>
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
@@ -3634,6 +3656,9 @@
       <c r="D38" t="s">
         <v>209</v>
       </c>
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
@@ -3642,6 +3667,9 @@
       <c r="D39" t="s">
         <v>78</v>
       </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
@@ -3650,6 +3678,9 @@
       <c r="D40" t="s">
         <v>199</v>
       </c>
+      <c r="E40" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
@@ -3658,6 +3689,9 @@
       <c r="D41" t="s">
         <v>211</v>
       </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
@@ -3666,6 +3700,9 @@
       <c r="D42" t="s">
         <v>212</v>
       </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
@@ -3673,6 +3710,9 @@
       </c>
       <c r="D43" t="s">
         <v>229</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
